--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.6386446193854853</v>
+        <v>-0.7929665312411044</v>
       </c>
       <c r="D2">
-        <v>0.5230831727143883</v>
+        <v>0.4332962080770135</v>
       </c>
       <c r="E2">
         <v>0.8290047951674989</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.3049904807398358</v>
+        <v>-0.3291314904302632</v>
       </c>
       <c r="D3">
-        <v>0.7603859986099444</v>
+        <v>0.7440752289085624</v>
       </c>
       <c r="E3">
         <v>0.8290047951674989</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.067427275435569</v>
+        <v>-1.48222548100006</v>
       </c>
       <c r="D4">
-        <v>0.285830073183724</v>
+        <v>0.1474903822841229</v>
       </c>
       <c r="E4">
         <v>0.8290047951674989</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3156794105563389</v>
+        <v>-0.3177875479579046</v>
       </c>
       <c r="D5">
-        <v>0.7522589294969977</v>
+        <v>0.7525896968259169</v>
       </c>
       <c r="E5">
         <v>0.8290047951674989</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.3861733828445629</v>
+        <v>0.4141323824909867</v>
       </c>
       <c r="D6">
-        <v>0.6993845690061464</v>
+        <v>0.6813782098136179</v>
       </c>
       <c r="E6">
         <v>0.8429263572719261</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.4174756263283453</v>
+        <v>-0.4132982357630789</v>
       </c>
       <c r="D7">
-        <v>0.6763483348054744</v>
+        <v>0.6819833074473352</v>
       </c>
       <c r="E7">
         <v>0.8429263572719261</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.2832247108164087</v>
+        <v>0.2364224499526925</v>
       </c>
       <c r="D8">
-        <v>0.7770162215368674</v>
+        <v>0.8145234463099507</v>
       </c>
       <c r="E8">
         <v>0.8429263572719261</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.7749135668821406</v>
+        <v>-0.9369859605422933</v>
       </c>
       <c r="D9">
-        <v>0.4384270953402778</v>
+        <v>0.3553741610524392</v>
       </c>
       <c r="E9">
         <v>0.8346274026166026</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.07930030311183274</v>
+        <v>-0.07576364138646027</v>
       </c>
       <c r="D10">
-        <v>0.9367969140985763</v>
+        <v>0.9400511985209494</v>
       </c>
       <c r="E10">
         <v>0.8346274026166026</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6988317174174193</v>
+        <v>1.025874795791025</v>
       </c>
       <c r="D11">
-        <v>0.4846894561906814</v>
+        <v>0.3121942834871412</v>
       </c>
       <c r="E11">
         <v>0.8522495065661472</v>
